--- a/docs/0.1.0/StructureDefinition-alvearie-identifier.xlsx
+++ b/docs/0.1.0/StructureDefinition-alvearie-identifier.xlsx
@@ -225,7 +225,7 @@
     <t>encryptedState</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/encrypted-state}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/encrypted-state}
 </t>
   </si>
   <si>
